--- a/Results.xlsx
+++ b/Results.xlsx
@@ -22,11 +22,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="167">
+  <si>
+    <t>Secuential Sieve Not Optimized Java 10 times Average</t>
+  </si>
+  <si>
+    <t>BruteForce Not Optimized C 10 times Average</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
   <si>
     <t>Limit</t>
   </si>
   <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ gcc bruteforce.c</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ javac Main.java</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 10</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 10</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.00000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.00170 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 100</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 100</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.00710 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 1000</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 1000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.70000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.33200 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 10000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 25.80000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1932.90000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 156861.70000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 10000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 19.40550 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1510.60200 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 1000000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 129228.51220 ms</t>
+  </si>
+  <si>
+    <t>BruteForce  Optimized Java 10 times Average</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.10000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.20000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1.50000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 22.90000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 1000000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 519.70000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 13818.00000 ms</t>
+  </si>
+  <si>
     <t>BFNOC</t>
   </si>
   <si>
@@ -60,6 +168,51 @@
     <t>Cuda</t>
   </si>
   <si>
+    <t>BruteForce Optimized Java 10 times Average</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ gcc bruteforce.c -o bfc.out</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 10</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.00160 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 100</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.00480 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 1000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.06320 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 10000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1.14850 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 23.14500 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 1000000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 554.78840 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 14047.18540 ms</t>
+  </si>
+  <si>
     <t>Secuential SieveC</t>
   </si>
   <si>
@@ -72,168 +225,96 @@
     <t>SpeedUp</t>
   </si>
   <si>
-    <t>BruteForce Optimized Java 10 times Average</t>
-  </si>
-  <si>
-    <t>CLI</t>
-  </si>
-  <si>
-    <t>Secuential Sieve Not Optimized Java 10 times Average</t>
-  </si>
-  <si>
-    <t>BruteForce Not Optimized C 10 times Average</t>
-  </si>
-  <si>
-    <t>Time (ms)</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ gcc bruteforce.c</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ javac Main.java</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 10</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.00000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 10</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 100</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.00170 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 1000</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ gcc bruteforce.c -o bfc.out</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 100</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.00710 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 1000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.70000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.33200 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 10000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 25.80000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 10000</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 100000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1932.90000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 19.40550 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 156861.70000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 100000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1510.60200 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./a.out 1000000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 129228.51220 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 10</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.00160 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 100</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.00480 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 1000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.06320 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 10000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1.14850 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 100000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 23.14500 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./bfc.out 1000000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 554.78840 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 14047.18540 ms</t>
-  </si>
-  <si>
-    <t>BruteForce  Optimized Java 10 times Average</t>
-  </si>
-  <si>
     <t>Secuential Sieve C 10 times Average</t>
   </si>
   <si>
+    <t>Parallel Sieve OpenMP10 times Average</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ clang -Xpreprocessor -fopenmp -lomp openmpsieve.c -o ompsieve.out</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.93840 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 100</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.39280 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 1000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.41360 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1.80770 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 18.61220 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 1000000</t>
+  </si>
+  <si>
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ gcc secuential.c -o sc.out</t>
   </si>
   <si>
+    <t>times 10 - avg time = 1.60000 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 26.70000 ms</t>
+  </si>
+  <si>
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./sc.out 10</t>
   </si>
   <si>
+    <t>times 10 - avg time = 367.91900 ms</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 650.60000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ head -1 secsievejava.txt</t>
+  </si>
+  <si>
     <t>times 10 - avg time = 0.00140 ms</t>
   </si>
   <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10000000 &gt; 10msieveomp.txt</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 16927.20000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ head -1 10msieveomp.txt</t>
+  </si>
+  <si>
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./sc.out 100</t>
   </si>
   <si>
+    <t>times 10 - avg time = 10775.37330 ms</t>
+  </si>
+  <si>
     <t>times 10 - avg time = 0.00320 ms</t>
   </si>
   <si>
-    <t>times 10 - avg time = 0.10000 ms</t>
-  </si>
-  <si>
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./sc.out 1000</t>
   </si>
   <si>
     <t>times 10 - avg time = 0.04710 ms</t>
   </si>
   <si>
-    <t>times 10 - avg time = 0.20000 ms</t>
-  </si>
-  <si>
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./sc.out 10000</t>
   </si>
   <si>
@@ -249,109 +330,97 @@
     <t>MacBook-Pro-de-Ramon-2:c-c++ ramonromero$ ./sc.out 1000000</t>
   </si>
   <si>
-    <t>times 10 - avg time = 1.60000 ms</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 567.26780 ms</t>
   </si>
   <si>
-    <t>times 10 - avg time = 26.70000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ java Main 1000000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 650.60000 ms</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 15141.64080 ms</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:java ramonromero$ head -1 secsievejava.txt</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 16927.20000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1.50000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 22.90000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 519.70000 ms</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 13818.00000 ms</t>
-  </si>
-  <si>
     <t>Parallel Sieve Threads Java 10 times Average</t>
   </si>
   <si>
-    <t>Parallel Sieve OpenMP10 times Average</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ clang -Xpreprocessor -fopenmp -lomp openmpsieve.c -o ompsieve.out</t>
+    <t>Parallel Sieve C++ TBB 10 times Average</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ g++ -ltbb tbbsieve.cpp -o tbbsieve.out</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ javac Main.java</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10</t>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 10</t>
   </si>
   <si>
-    <t>times 10 - avg time = 0.93840 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 100</t>
+    <t>times 10 - avg time = 0.6154 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 100</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.1938 ms</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 100</t>
   </si>
   <si>
-    <t>times 10 - avg time = 0.39280 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 1000</t>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 1000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 0.2638 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10000</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 1000</t>
   </si>
   <si>
-    <t>times 10 - avg time = 0.41360 ms</t>
+    <t>times 10 - avg time = 2.1103 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 38.9667 ms</t>
+  </si>
+  <si>
+    <t>Parallel Sieve ForkJoin Java 10 times Average</t>
   </si>
   <si>
     <t>times 10 - avg time = 0.30000 ms</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10000</t>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 1000000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1133.33 ms</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 10000</t>
   </si>
   <si>
-    <t>times 10 - avg time = 1.80770 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 100000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 18.61220 ms</t>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ javac Main.java</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10000000 &gt; 10mtbb.txt</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 100000</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 1000000</t>
+    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ head -1 10mtbb.txt</t>
   </si>
   <si>
     <t>times 10 - avg time = 19.30000 ms</t>
   </si>
   <si>
-    <t>times 10 - avg time = 367.91900 ms</t>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 30988.4 ms</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 1000000</t>
@@ -360,16 +429,16 @@
     <t>times 10 - avg time = 558.10000 ms</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ ./ompsieve.out 10000000 &gt; 10msieveomp.txt</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:openmp ramonromero$ head -1 10msieveomp.txt</t>
+    <t>times 10 - avg time = 1.70000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 100</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ java Main 10000000 &gt; 10mjavathreads.txt</t>
   </si>
   <si>
-    <t>times 10 - avg time = 10775.37330 ms</t>
+    <t>times 10 - avg time = 2.70000 ms</t>
   </si>
   <si>
     <t>MacBook-Pro-de-Ramon-2:threads ramonromero$ head -1 10mjavathreads.txt</t>
@@ -378,120 +447,72 @@
     <t>times 10 - avg time = 14911.90000 ms</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ g++ -ltbb tbbsieve.cpp -o tbbsieve.out</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.6154 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 100</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.1938 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 1000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 0.2638 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 2.1103 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 100000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 38.9667 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 1000000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1133.33 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ ./tbbsieve.out 10000000 &gt; 10mtbb.txt</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:tbb ramonromero$ head -1 10mtbb.txt</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 30988.4 ms</t>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 1000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 5.60000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 19.60000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 100000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 167.40000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 1000000</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 1262.00000 ms</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10000000 &gt; 10mfjjava.txt</t>
+  </si>
+  <si>
+    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ head -1 10mfjjava.txt</t>
+  </si>
+  <si>
+    <t>times 10 - avg time = 24197.60000 ms</t>
+  </si>
+  <si>
+    <t>Parallel Sieve CUDA 10 times Average</t>
   </si>
   <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 10</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ javac Main.java</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 6.68960 ms, 10 threads</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10</t>
-  </si>
-  <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 100</t>
   </si>
   <si>
-    <t>times 10 - avg time = 1.70000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 100</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 5.50760 ms, 100 threads</t>
   </si>
   <si>
-    <t>times 10 - avg time = 2.70000 ms</t>
-  </si>
-  <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 1000</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 1000</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 6.67410 ms, 1000 threads</t>
   </si>
   <si>
-    <t>times 10 - avg time = 5.60000 ms</t>
-  </si>
-  <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 10000</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10000</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 19.60000 ms</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 6.75640 ms, 1024 threads</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 100000</t>
-  </si>
-  <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 100000</t>
   </si>
   <si>
-    <t>times 10 - avg time = 167.40000 ms</t>
-  </si>
-  <si>
     <t>times 10 - avg time = 7.95210 ms, 1024 threads</t>
   </si>
   <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 1000000</t>
-  </si>
-  <si>
     <t>ubuntu@ip-172-31-41-114:~/ramoncuda/sieve$ ./a.out 1000000</t>
   </si>
   <si>
@@ -502,18 +523,6 @@
   </si>
   <si>
     <t>times 10 - avg time = 448.50280 ms, 1024 threads</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 1262.00000 ms</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ java Main 10000000 &gt; 10mfjjava.txt</t>
-  </si>
-  <si>
-    <t>MacBook-Pro-de-Ramon-2:forkjoin ramonromero$ head -1 10mfjjava.txt</t>
-  </si>
-  <si>
-    <t>times 10 - avg time = 24197.60000 ms</t>
   </si>
 </sst>
 </file>
@@ -546,14 +555,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -564,14 +567,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFE8F0FE"/>
+        <bgColor rgb="FFE8F0FE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8F0FE"/>
-        <bgColor rgb="FFE8F0FE"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
   </fills>
@@ -594,34 +603,55 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -630,28 +660,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -718,6 +727,30 @@
     </dxf>
   </dxfs>
   <tableStyles count="18">
+    <tableStyle count="3" pivot="0" name="SimpleBFJava-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="SimpleBFC-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="BFOptimizedC-style">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="BFOptimizedC-style 2">
+      <tableStyleElement dxfId="5" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="BFOptimizedJ-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="General SpeedUp-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -748,24 +781,10 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="BFOptimizedC-style">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="SimpleBFC-style">
+    <tableStyle count="3" pivot="0" name="OpenMP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="SimpleBFJava-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="BFOptimizedC-style 2">
-      <tableStyleElement dxfId="5" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="SecuentialJava-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
@@ -777,12 +796,7 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="BFOptimizedJ-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="OpenMP-style">
+    <tableStyle count="3" pivot="0" name="tbb-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -792,17 +806,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="tbb-style">
+    <tableStyle count="3" pivot="0" name="forkJoin-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="CUDA-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="forkJoin-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -934,11 +943,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1616533228"/>
-        <c:axId val="439893263"/>
+        <c:axId val="821916745"/>
+        <c:axId val="1616133436"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1616533228"/>
+        <c:axId val="821916745"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,10 +962,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439893263"/>
+        <c:crossAx val="1616133436"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439893263"/>
+        <c:axId val="1616133436"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -987,7 +996,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1616533228"/>
+        <c:crossAx val="821916745"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1048,11 +1057,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="561976984"/>
-        <c:axId val="445932487"/>
+        <c:axId val="1578611855"/>
+        <c:axId val="943830935"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="561976984"/>
+        <c:axId val="1578611855"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1084,10 +1093,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445932487"/>
+        <c:crossAx val="943830935"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445932487"/>
+        <c:axId val="943830935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1144,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561976984"/>
+        <c:crossAx val="1578611855"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1197,11 +1206,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1634651511"/>
-        <c:axId val="501078771"/>
+        <c:axId val="659516172"/>
+        <c:axId val="1774223528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1634651511"/>
+        <c:axId val="659516172"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1233,10 +1242,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501078771"/>
+        <c:crossAx val="1774223528"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501078771"/>
+        <c:axId val="1774223528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1293,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1634651511"/>
+        <c:crossAx val="659516172"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1346,11 +1355,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="701901607"/>
-        <c:axId val="1716661082"/>
+        <c:axId val="1371595091"/>
+        <c:axId val="777020254"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="701901607"/>
+        <c:axId val="1371595091"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1382,10 +1391,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1716661082"/>
+        <c:crossAx val="777020254"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1716661082"/>
+        <c:axId val="777020254"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1442,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701901607"/>
+        <c:crossAx val="1371595091"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1495,11 +1504,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="835659549"/>
-        <c:axId val="829053974"/>
+        <c:axId val="1763473712"/>
+        <c:axId val="811796805"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="835659549"/>
+        <c:axId val="1763473712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1531,10 +1540,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="829053974"/>
+        <c:crossAx val="811796805"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="829053974"/>
+        <c:axId val="811796805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="835659549"/>
+        <c:crossAx val="1763473712"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1715,11 +1724,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1699735850"/>
-        <c:axId val="1246073127"/>
+        <c:axId val="1657679796"/>
+        <c:axId val="1669041087"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1699735850"/>
+        <c:axId val="1657679796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1734,10 +1743,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246073127"/>
+        <c:crossAx val="1669041087"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1246073127"/>
+        <c:axId val="1669041087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1777,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1699735850"/>
+        <c:crossAx val="1657679796"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1829,11 +1838,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1823257523"/>
-        <c:axId val="1566076479"/>
+        <c:axId val="821568974"/>
+        <c:axId val="1952015766"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1823257523"/>
+        <c:axId val="821568974"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1865,10 +1874,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1566076479"/>
+        <c:crossAx val="1952015766"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1566076479"/>
+        <c:axId val="1952015766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1925,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1823257523"/>
+        <c:crossAx val="821568974"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1978,11 +1987,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="408836221"/>
-        <c:axId val="1661897795"/>
+        <c:axId val="1416151677"/>
+        <c:axId val="1910271350"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408836221"/>
+        <c:axId val="1416151677"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2014,10 +2023,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1661897795"/>
+        <c:crossAx val="1910271350"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1661897795"/>
+        <c:axId val="1910271350"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408836221"/>
+        <c:crossAx val="1416151677"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2127,11 +2136,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="41229578"/>
-        <c:axId val="1811378427"/>
+        <c:axId val="298174129"/>
+        <c:axId val="517189595"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41229578"/>
+        <c:axId val="298174129"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2163,10 +2172,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1811378427"/>
+        <c:crossAx val="517189595"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1811378427"/>
+        <c:axId val="517189595"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2223,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41229578"/>
+        <c:crossAx val="298174129"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2276,11 +2285,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="103446754"/>
-        <c:axId val="58438015"/>
+        <c:axId val="758777612"/>
+        <c:axId val="86184261"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103446754"/>
+        <c:axId val="758777612"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2312,10 +2321,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58438015"/>
+        <c:crossAx val="86184261"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58438015"/>
+        <c:axId val="86184261"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,7 +2372,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103446754"/>
+        <c:crossAx val="758777612"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2425,11 +2434,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="537520269"/>
-        <c:axId val="742135749"/>
+        <c:axId val="1459062045"/>
+        <c:axId val="1990823668"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537520269"/>
+        <c:axId val="1459062045"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2461,10 +2470,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742135749"/>
+        <c:crossAx val="1990823668"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="742135749"/>
+        <c:axId val="1990823668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537520269"/>
+        <c:crossAx val="1459062045"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2574,11 +2583,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2046096637"/>
-        <c:axId val="1385106144"/>
+        <c:axId val="415448553"/>
+        <c:axId val="44249057"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046096637"/>
+        <c:axId val="415448553"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2610,10 +2619,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385106144"/>
+        <c:crossAx val="44249057"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385106144"/>
+        <c:axId val="44249057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2670,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046096637"/>
+        <c:crossAx val="415448553"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2723,11 +2732,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="507649297"/>
-        <c:axId val="1700973151"/>
+        <c:axId val="1441008949"/>
+        <c:axId val="1305343599"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="507649297"/>
+        <c:axId val="1441008949"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2759,10 +2768,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1700973151"/>
+        <c:crossAx val="1305343599"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1700973151"/>
+        <c:axId val="1305343599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2819,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507649297"/>
+        <c:crossAx val="1441008949"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -2835,7 +2844,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2860,7 +2869,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2890,7 +2899,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 11" title="Gráfico"/>
+        <xdr:cNvPr id="10" name="Chart 10" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2920,7 +2929,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 13" title="Gráfico"/>
+        <xdr:cNvPr id="12" name="Chart 12" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2950,7 +2959,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 12" title="Gráfico"/>
+        <xdr:cNvPr id="13" name="Chart 13" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2980,7 +2989,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3010,7 +3019,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Gráfico"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3040,7 +3049,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Gráfico"/>
+        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3070,7 +3079,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 6" title="Gráfico"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3100,7 +3109,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
+        <xdr:cNvPr id="9" name="Chart 9" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3160,7 +3169,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 10" title="Gráfico"/>
+        <xdr:cNvPr id="8" name="Chart 8" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3190,7 +3199,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 9" title="Gráfico"/>
+        <xdr:cNvPr id="11" name="Chart 11" title="Gráfico"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3209,7 +3218,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B22:H23" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B22:H23" displayName="Table_6" id="6">
   <tableColumns count="7">
     <tableColumn name="Secuential SieveC" id="1"/>
     <tableColumn name="Secuential SieveJava" id="2"/>
@@ -3224,7 +3233,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_10" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_4" id="5">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3234,7 +3243,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_13" id="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_5" id="3">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3244,7 +3253,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_14" id="14">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3254,7 +3263,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_12" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_13" id="13">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3264,7 +3273,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_15" id="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_12" id="12">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3274,7 +3283,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_14" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_16" id="16">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3284,7 +3293,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_16" id="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_15" id="15">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3294,7 +3303,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_18" id="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_17" id="17">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3304,7 +3313,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_17" id="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_18" id="18">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3314,7 +3323,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L7" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L7" displayName="Table_7" id="7">
   <tableColumns count="12">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="BFNOC" id="2"/>
@@ -3334,7 +3343,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D25:H25" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D25:H25" displayName="Table_8" id="8">
   <tableColumns count="5">
     <tableColumn name="OpenMP" id="1"/>
     <tableColumn name="Threads" id="2"/>
@@ -3347,7 +3356,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A14:A20" displayName="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A14:A20" displayName="Table_9" id="9">
   <tableColumns count="1">
     <tableColumn name="Limit" id="1"/>
   </tableColumns>
@@ -3356,7 +3365,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22" displayName="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22" displayName="Table_10" id="10">
   <tableColumns count="1">
     <tableColumn name="Limit" id="1"/>
   </tableColumns>
@@ -3365,7 +3374,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B14:H20" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B14:H20" displayName="Table_11" id="11">
   <tableColumns count="7">
     <tableColumn name="Secuential SieveC" id="1"/>
     <tableColumn name="Secuential SieveJava" id="2"/>
@@ -3380,7 +3389,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_2" id="2">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3390,7 +3399,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_9" id="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:B9" displayName="Table_1" id="1">
   <tableColumns count="2">
     <tableColumn name="Limit" id="1"/>
     <tableColumn name="Time (ms)" id="2"/>
@@ -3400,7 +3409,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I8:J14" displayName="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="I8:J14" displayName="Table_3" id="4">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -3420,45 +3429,45 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10.0</v>
       </c>
       <c r="B2" s="3">
@@ -3467,7 +3476,7 @@
       <c r="C2" s="3">
         <v>0.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>0.0016</v>
       </c>
       <c r="E2" s="5">
@@ -3496,7 +3505,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>100.0</v>
       </c>
       <c r="B3" s="3">
@@ -3505,7 +3514,7 @@
       <c r="C3" s="3">
         <v>0.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>0.0048</v>
       </c>
       <c r="E3" s="5">
@@ -3534,7 +3543,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1000.0</v>
       </c>
       <c r="B4" s="3">
@@ -3543,7 +3552,7 @@
       <c r="C4" s="3">
         <v>0.7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>0.0632</v>
       </c>
       <c r="E4" s="5">
@@ -3572,7 +3581,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>10000.0</v>
       </c>
       <c r="B5" s="3">
@@ -3581,7 +3590,7 @@
       <c r="C5" s="3">
         <v>25.8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>1.1485</v>
       </c>
       <c r="E5" s="5">
@@ -3610,7 +3619,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>100000.0</v>
       </c>
       <c r="B6" s="3">
@@ -3619,7 +3628,7 @@
       <c r="C6" s="3">
         <v>1923.9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>23.145</v>
       </c>
       <c r="E6" s="5">
@@ -3648,78 +3657,78 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="10">
         <v>1000000.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="12">
         <v>129228.5122</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>156861.7</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="13">
         <v>554.7884</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="15">
         <v>519.7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="12">
         <v>567.2678</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="12">
         <v>650.6</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <v>367.919</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="17">
         <v>558.1</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="17">
         <v>1133.33</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="17">
         <v>1262.0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="17">
         <v>30.2555</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>-1.0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="18">
         <v>14047.1854</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="19">
         <v>13818.0</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="20">
         <v>15141.6408</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="20">
         <v>16927.2</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="20">
         <v>10775.3733</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="20">
         <v>14911.9</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="20">
         <v>30988.4</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="20">
         <v>24197.6</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="20">
         <v>448.5028</v>
       </c>
     </row>
@@ -3730,285 +3739,285 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>10.0</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="21">
         <v>0.0014</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="21">
         <v>0.0</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="21">
         <v>0.9384</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="21">
         <v>0.1</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="21">
         <v>0.6154</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <v>1.7</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="21">
         <v>6.6896</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>100.0</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="21">
         <v>0.0032</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="21">
         <v>0.0</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="21">
         <v>0.3928</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="21">
         <v>0.2</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="21">
         <v>0.1938</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="21">
         <v>2.7</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="21">
         <v>5.5076</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1000.0</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="21">
         <v>0.0471</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="21">
         <v>0.2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="21">
         <v>0.4136</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="21">
         <v>0.3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="21">
         <v>0.2638</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="21">
         <v>5.6</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="21">
         <v>6.6741</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>10000.0</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="21">
         <v>1.1049</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="21">
         <v>1.6</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="21">
         <v>1.8077</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="21">
         <v>1.5</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="21">
         <v>2.1103</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="21">
         <v>19.6</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="21">
         <v>6.756</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>100000.0</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="21">
         <v>22.7643</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>26.7</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
         <v>18.6122</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="21">
         <v>19.3</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="21">
         <v>38.9667</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="21">
         <v>167.4</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="21">
         <v>7.9521</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6">
+      <c r="A20" s="10">
         <v>1000000.0</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="22">
         <v>567.2678</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="22">
         <v>650.6</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="22">
         <v>367.919</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="22">
         <v>558.1</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="22">
         <v>1133.33</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="22">
         <v>1262.0</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="22">
         <v>30.2555</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="23">
         <v>15141.6408</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="23">
         <v>16927.2</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="23">
         <v>10775.3733</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="23">
         <v>14911.9</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="23">
         <v>30988.4</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="23">
         <v>24197.6</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="23">
         <v>448.5028</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="23">
         <v>15141.6408</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="23">
         <v>16927.2</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="23">
         <v>10775.3733</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="23">
         <v>14911.9</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="23">
         <v>30988.4</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="23">
         <v>24197.6</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="23">
         <v>448.5028</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="2" t="s">
-        <v>15</v>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:E26" si="1">B23/D23</f>
@@ -4055,144 +4064,144 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.6154</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>119</v>
+      <c r="E3" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.1938</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>120</v>
+      <c r="E4" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.2638</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>121</v>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>2.1103</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>122</v>
+      <c r="E6" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>38.9667</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1000000.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1133.33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1.0E7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30988.4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1000000.0</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1133.33</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="14">
+      <c r="E14" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1.0E7</v>
-      </c>
-      <c r="B9" s="18">
-        <v>30988.4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="2" t="s">
+    <row r="15">
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="2" t="s">
+    <row r="17">
+      <c r="E17" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="2" t="s">
+    <row r="18">
+      <c r="E18" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4217,144 +4226,144 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>135</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>1.7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>2.7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>139</v>
+      <c r="E4" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>5.6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>140</v>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>19.6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>142</v>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>167.4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>1000000.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1262.0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>1.0E7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>24197.6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>1000000.0</v>
-      </c>
-      <c r="B8" s="18">
-        <v>1262.0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="11">
+      <c r="E11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>1.0E7</v>
-      </c>
-      <c r="B9" s="18">
-        <v>24197.6</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    <row r="13">
+      <c r="E13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="2" t="s">
+    <row r="15">
+      <c r="E15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11">
-      <c r="E11" s="2" t="s">
+    <row r="17">
+      <c r="E17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4379,129 +4388,129 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>134</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>6.6896</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
+      <c r="E3" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>5.5076</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>138</v>
+      <c r="E4" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>6.6741</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>141</v>
+      <c r="E5" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>6.756</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>143</v>
+      <c r="E6" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>7.9521</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>145</v>
+      <c r="E7" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>30.2555</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>147</v>
+      <c r="E8" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>448.5028</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>150</v>
+      <c r="E9" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>152</v>
+      <c r="E10" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>154</v>
+      <c r="E11" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>156</v>
+      <c r="E12" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>157</v>
+      <c r="E13" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>158</v>
+      <c r="E14" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>159</v>
+      <c r="E15" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4526,120 +4535,120 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.0017</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.0071</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.332</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>19.4055</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>1510.602</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>129228.5122</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>40</v>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>42</v>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>43</v>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>44</v>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>45</v>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4664,115 +4673,115 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>25.8</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>1923.9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>156861.7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>36</v>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>38</v>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>39</v>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>41</v>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4797,171 +4806,171 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19">
+      <c r="A3" s="9">
         <v>10.0</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="11">
         <v>0.0016</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19">
+      <c r="A4" s="9">
         <v>100.0</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="11">
         <v>0.0048</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19">
+      <c r="A5" s="9">
         <v>1000.0</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="11">
         <v>0.0632</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19">
+      <c r="A6" s="9">
         <v>10000.0</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="11">
         <v>1.1485</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19">
+      <c r="A7" s="9">
         <v>100000.0</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="11">
         <v>23.145</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19">
+      <c r="A8" s="9">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="14">
         <v>554.7884</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="19">
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="9">
         <v>10.0</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="11">
         <v>0.0016</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19">
+      <c r="A9" s="9">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="16">
         <v>14047.1854</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="19">
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9">
         <v>100.0</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="11">
         <v>0.0048</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="19">
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="9">
         <v>1000.0</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="11">
         <v>0.0632</v>
       </c>
     </row>
     <row r="11">
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="9">
         <v>10000.0</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="11">
         <v>1.1485</v>
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="19">
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="9">
         <v>100000.0</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="11">
         <v>23.145</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="19">
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="9">
         <v>1000000.0</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="14">
         <v>554.7884</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="9">
         <v>1.0E7</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="16">
         <v>14047.1854</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="2" t="s">
-        <v>58</v>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4987,129 +4996,129 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="5">
         <v>0.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="5">
         <v>0.1</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="5">
         <v>0.2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="5">
         <v>1.5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>66</v>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="5">
         <v>22.9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="6">
         <v>519.7</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>69</v>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="6">
         <v>13818.0</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>86</v>
+      <c r="E15" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5134,129 +5143,129 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.0014</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>62</v>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.0032</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.0471</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>64</v>
+      <c r="E5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>1.1049</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>22.7643</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>67</v>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>567.2678</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>68</v>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>15141.6408</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>70</v>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>71</v>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>72</v>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>73</v>
+      <c r="E12" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>74</v>
+      <c r="E13" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>76</v>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>80</v>
+      <c r="E15" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5281,134 +5290,134 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>1.6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>26.7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>650.6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>69</v>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>16927.2</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>75</v>
+      <c r="E10" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>38</v>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>77</v>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>78</v>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>79</v>
+      <c r="E14" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>81</v>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="2" t="s">
-        <v>82</v>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5433,144 +5442,144 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.9384</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>91</v>
+      <c r="E3" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.3928</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>93</v>
+      <c r="E4" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.4136</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>94</v>
+      <c r="E5" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>1.8077</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>96</v>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>18.6122</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>97</v>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>367.919</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
+      <c r="E8" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>10775.3733</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>101</v>
+      <c r="E9" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>103</v>
+      <c r="E10" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>104</v>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>105</v>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>107</v>
+      <c r="E13" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>109</v>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16">
-      <c r="E16" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
     <row r="17">
-      <c r="E17" s="2" t="s">
-        <v>113</v>
+      <c r="E17" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="2" t="s">
-        <v>115</v>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5595,144 +5604,144 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>90</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>10.0</v>
       </c>
       <c r="B3" s="3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>92</v>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100.0</v>
       </c>
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1000.0</v>
       </c>
       <c r="B5" s="3">
         <v>0.3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>95</v>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>10000.0</v>
       </c>
       <c r="B6" s="3">
         <v>1.5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>100000.0</v>
       </c>
       <c r="B7" s="3">
         <v>19.3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>98</v>
+      <c r="E7" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000000.0</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="4">
         <v>558.1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>100</v>
+      <c r="E8" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1.0E7</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="4">
         <v>14911.9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
+      <c r="E9" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="2" t="s">
-        <v>83</v>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" s="2" t="s">
-        <v>106</v>
+      <c r="E11" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="2" t="s">
-        <v>108</v>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="2" t="s">
-        <v>110</v>
+      <c r="E13" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="2" t="s">
-        <v>111</v>
+      <c r="E14" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="2" t="s">
-        <v>90</v>
+      <c r="E15" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="2" t="s">
-        <v>114</v>
+      <c r="E16" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17">
-      <c r="E17" s="2" t="s">
-        <v>116</v>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="2" t="s">
-        <v>117</v>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
